--- a/data/134/DEUSTATIS/old/Index of wholesale prices - total.xlsx
+++ b/data/134/DEUSTATIS/old/Index of wholesale prices - total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="83">
   <si>
     <t>Index of wholesale prices (incl. rates of change): Germany,
 months</t>
@@ -265,7 +265,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:33:49</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:31:46</t>
   </si>
 </sst>
 </file>
@@ -22730,14 +22730,14 @@
       <c r="XV8" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="XW8" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="XX8" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="XY8" t="s" s="10">
-        <v>75</v>
+      <c r="XW8" t="n" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="XX8" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="XY8" t="n" s="10">
+        <v>118.9</v>
       </c>
       <c r="XZ8" t="s" s="10">
         <v>75</v>
@@ -24682,14 +24682,14 @@
       <c r="XV9" t="n" s="10">
         <v>0.5</v>
       </c>
-      <c r="XW9" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="XX9" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="XY9" t="s" s="10">
-        <v>75</v>
+      <c r="XW9" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="XX9" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="XY9" t="n" s="10">
+        <v>1.3</v>
       </c>
       <c r="XZ9" t="s" s="10">
         <v>75</v>
@@ -26634,14 +26634,14 @@
       <c r="XV10" t="n" s="10">
         <v>12.3</v>
       </c>
-      <c r="XW10" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="XX10" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="XY10" t="s" s="10">
-        <v>75</v>
+      <c r="XW10" t="n" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="XX10" t="n" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="XY10" t="n" s="10">
+        <v>16.6</v>
       </c>
       <c r="XZ10" t="s" s="10">
         <v>75</v>
@@ -26776,7 +26776,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:33:54&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:31:53&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>